--- a/Data/TestData/EmployeeCreationData.xlsx
+++ b/Data/TestData/EmployeeCreationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>testId</t>
   </si>
@@ -94,6 +94,81 @@
     <t>percentage</t>
   </si>
   <si>
+    <t>total_experience</t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t>GT_email_id</t>
+  </si>
+  <si>
+    <t>emp_type</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>assign_projects</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location </t>
+  </si>
+  <si>
+    <t>bank_acc_no</t>
+  </si>
+  <si>
+    <t>UAN_no</t>
+  </si>
+  <si>
+    <t>PF_no</t>
+  </si>
+  <si>
+    <t>Stipend</t>
+  </si>
+  <si>
+    <t>consultation_fees</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>basic_salary</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>conveynce_allowance</t>
+  </si>
+  <si>
+    <t>medical_allowance</t>
+  </si>
+  <si>
+    <t>mobile_allowance</t>
+  </si>
+  <si>
+    <t>executive_allowance</t>
+  </si>
+  <si>
+    <t>employee_insurance</t>
+  </si>
+  <si>
+    <t>variable_pay</t>
+  </si>
+  <si>
+    <t>EPF</t>
+  </si>
+  <si>
+    <t>joining_bonus</t>
+  </si>
+  <si>
     <t>newemp_001</t>
   </si>
   <si>
@@ -109,43 +184,136 @@
     <t>password</t>
   </si>
   <si>
-    <t>Suzanne</t>
+    <t>Freddie</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>Prohaska</t>
-  </si>
-  <si>
-    <t>Suzanne59@yahoo.com</t>
-  </si>
-  <si>
-    <t>NYDKC9885R</t>
-  </si>
-  <si>
-    <t>70415 Beahan Forges, Streichberg - 85376, Wisconsin, Antarctica (the territory South of 60 deg S)</t>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Freddie.Bayer@rediffmail.com</t>
+  </si>
+  <si>
+    <t>NYDAA1187R</t>
+  </si>
+  <si>
+    <t>676 Nella Stream, Parkerton - 41625, New Hampshire, Syrian Arab Republic</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Mole</t>
+  </si>
+  <si>
+    <t>FATHER</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Freddir@rediffmail.com</t>
+  </si>
+  <si>
+    <t>TRAINEE</t>
+  </si>
+  <si>
+    <t>Automation Test Engineer</t>
+  </si>
+  <si>
+    <t>Galentic Projects</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>newemp_002</t>
+  </si>
+  <si>
+    <t>Greyson</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Greyson33@rediffmail.com</t>
+  </si>
+  <si>
+    <t>NYDGQ1188R</t>
+  </si>
+  <si>
+    <t>951 Roberts Squares, Schuppeberg - 40347-5185, Vermont, Kazakhstan</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
     <t>70415 Beahan Forges, Streichberg - 85376</t>
   </si>
   <si>
-    <t>Mole</t>
-  </si>
-  <si>
-    <t>FATHER</t>
-  </si>
-  <si>
-    <t>B.Sc.</t>
-  </si>
-  <si>
-    <t>MU</t>
+    <t>SISTER</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Greyson34@rediffmail.com</t>
+  </si>
+  <si>
+    <t>CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>newemp_003</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>Rosemary74@yahoo.com</t>
+  </si>
+  <si>
+    <t>NYDGQ1189R</t>
+  </si>
+  <si>
+    <t>12745 Goodwin Mission, West Devontefurt - 01538, Delaware, Cambodia</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>MOTHER</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
   </si>
 </sst>
 </file>
@@ -154,11 +322,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +343,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -182,8 +432,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,129 +494,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +509,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +700,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,239 +795,169 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,13 +1277,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
@@ -1116,14 +1294,14 @@
     <col min="7" max="7" width="11.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="10.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="24.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="28.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="11.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="13.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="9.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="95" customWidth="1"/>
     <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="21.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="95" customWidth="1"/>
+    <col min="17" max="17" width="41" customWidth="1"/>
     <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
     <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
@@ -1133,28 +1311,53 @@
     <col min="24" max="24" width="13.4285714285714" customWidth="1"/>
     <col min="25" max="25" width="17.2857142857143" customWidth="1"/>
     <col min="26" max="26" width="11.7142857142857" customWidth="1"/>
+    <col min="27" max="27" width="17.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="5" customWidth="1"/>
+    <col min="29" max="29" width="24.4285714285714" customWidth="1"/>
+    <col min="30" max="30" width="15.1428571428571" customWidth="1"/>
+    <col min="31" max="31" width="21.8571428571429" customWidth="1"/>
+    <col min="32" max="32" width="15.7142857142857" customWidth="1"/>
+    <col min="33" max="33" width="8.71428571428571" customWidth="1"/>
+    <col min="34" max="34" width="12.1428571428571" customWidth="1"/>
+    <col min="35" max="35" width="9.14285714285714" customWidth="1"/>
+    <col min="36" max="36" width="13.1428571428571" customWidth="1"/>
+    <col min="37" max="37" width="9" customWidth="1"/>
+    <col min="38" max="38" width="7" customWidth="1"/>
+    <col min="39" max="39" width="8.42857142857143" customWidth="1"/>
+    <col min="40" max="40" width="18.2857142857143" customWidth="1"/>
+    <col min="41" max="41" width="7.57142857142857" customWidth="1"/>
+    <col min="42" max="42" width="12.4285714285714" customWidth="1"/>
+    <col min="43" max="43" width="6.57142857142857" customWidth="1"/>
+    <col min="44" max="44" width="22.4285714285714" customWidth="1"/>
+    <col min="45" max="45" width="19.5714285714286" customWidth="1"/>
+    <col min="46" max="46" width="18.8571428571429" customWidth="1"/>
+    <col min="47" max="47" width="21.5714285714286" customWidth="1"/>
+    <col min="48" max="48" width="21.4285714285714" customWidth="1"/>
+    <col min="49" max="49" width="13.1428571428571" customWidth="1"/>
+    <col min="50" max="50" width="5.57142857142857" customWidth="1"/>
+    <col min="51" max="51" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:51">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1166,7 +1369,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1214,82 +1417,521 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K2" s="2">
-        <v>356127459180</v>
+        <v>356725858182</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <v>15011998</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="Q2"/>
       <c r="R2">
-        <v>7912984042</v>
+        <v>4314219012</v>
       </c>
       <c r="S2">
-        <v>7912984043</v>
+        <v>4314219013</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="X2">
         <v>2015</v>
       </c>
       <c r="Y2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Z2">
         <v>75</v>
       </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2">
+        <v>1234</v>
+      </c>
+      <c r="AK2">
+        <v>1234</v>
+      </c>
+      <c r="AL2">
+        <v>1234</v>
+      </c>
+      <c r="AM2">
+        <v>40000</v>
+      </c>
+      <c r="AN2">
+        <v>40000</v>
+      </c>
+      <c r="AO2">
+        <v>100000</v>
+      </c>
+      <c r="AP2">
+        <v>30000</v>
+      </c>
+      <c r="AQ2">
+        <v>15000</v>
+      </c>
+      <c r="AR2">
+        <v>19200</v>
+      </c>
+      <c r="AS2">
+        <v>15000</v>
+      </c>
+      <c r="AT2">
+        <v>6000</v>
+      </c>
+      <c r="AU2">
+        <v>6200</v>
+      </c>
+      <c r="AV2">
+        <v>5000</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>3600</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="2">
+        <v>356727758183</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>15011998</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3">
+        <v>3815704588</v>
+      </c>
+      <c r="S3">
+        <v>3815704584</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3">
+        <v>2016</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3">
+        <v>75</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ3">
+        <v>1234</v>
+      </c>
+      <c r="AK3">
+        <v>1234</v>
+      </c>
+      <c r="AL3">
+        <v>1234</v>
+      </c>
+      <c r="AM3">
+        <v>40000</v>
+      </c>
+      <c r="AN3">
+        <v>40000</v>
+      </c>
+      <c r="AO3">
+        <v>100000</v>
+      </c>
+      <c r="AP3">
+        <v>30000</v>
+      </c>
+      <c r="AQ3">
+        <v>15000</v>
+      </c>
+      <c r="AR3">
+        <v>19200</v>
+      </c>
+      <c r="AS3">
+        <v>15000</v>
+      </c>
+      <c r="AT3">
+        <v>6000</v>
+      </c>
+      <c r="AU3">
+        <v>6200</v>
+      </c>
+      <c r="AV3">
+        <v>5000</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>3600</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="2">
+        <v>356727758184</v>
+      </c>
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4">
+        <v>15011998</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4">
+        <v>3815704589</v>
+      </c>
+      <c r="S4">
+        <v>3815704585</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4">
+        <v>2017</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4">
+        <v>75</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4">
+        <v>1234</v>
+      </c>
+      <c r="AK4">
+        <v>1234</v>
+      </c>
+      <c r="AL4">
+        <v>1234</v>
+      </c>
+      <c r="AM4">
+        <v>40000</v>
+      </c>
+      <c r="AN4">
+        <v>40000</v>
+      </c>
+      <c r="AO4">
+        <v>100000</v>
+      </c>
+      <c r="AP4">
+        <v>30000</v>
+      </c>
+      <c r="AQ4">
+        <v>15000</v>
+      </c>
+      <c r="AR4">
+        <v>19200</v>
+      </c>
+      <c r="AS4">
+        <v>15000</v>
+      </c>
+      <c r="AT4">
+        <v>6000</v>
+      </c>
+      <c r="AU4">
+        <v>6200</v>
+      </c>
+      <c r="AV4">
+        <v>5000</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>3600</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1" display="Greyson34@rediffmail.com"/>
+    <hyperlink ref="AC2" r:id="rId2" display="Freddir@rediffmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
